--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>78.38060788027526</v>
+        <v>74.97871205021183</v>
       </c>
       <c r="C2">
-        <v>76.29015831385374</v>
+        <v>76.08898233642797</v>
       </c>
       <c r="D2">
-        <v>76.38024350541075</v>
+        <v>81.70912027889234</v>
       </c>
       <c r="E2">
-        <v>76.78509874460417</v>
+        <v>80.33317379989258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>97.69639546325196</v>
+        <v>86.10921159065869</v>
       </c>
       <c r="C3">
-        <v>97.71570094150604</v>
+        <v>86.48485917783529</v>
       </c>
       <c r="D3">
-        <v>97.69524915350665</v>
+        <v>86.14888549446351</v>
       </c>
       <c r="E3">
-        <v>98.29997838293279</v>
+        <v>86.4564306229955</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.37153691977603</v>
+        <v>99.29849884191349</v>
       </c>
       <c r="C4">
-        <v>99.31361304246407</v>
+        <v>99.2754554553667</v>
       </c>
       <c r="D4">
-        <v>99.24359934533456</v>
+        <v>99.32840760905329</v>
       </c>
       <c r="E4">
-        <v>99.35235261135229</v>
+        <v>99.35672870082082</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.94589562645731</v>
+        <v>98.95797991079844</v>
       </c>
       <c r="C5">
-        <v>98.98666931622614</v>
+        <v>98.95965141652303</v>
       </c>
       <c r="D5">
-        <v>98.95131408749033</v>
+        <v>98.89240116085847</v>
       </c>
       <c r="E5">
-        <v>98.94599988659223</v>
+        <v>98.91056468915318</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.59467142080213</v>
+        <v>98.54715166863556</v>
       </c>
       <c r="C6">
-        <v>98.46806658217592</v>
+        <v>98.48310757927128</v>
       </c>
       <c r="D6">
-        <v>98.53016082660511</v>
+        <v>98.49366160461102</v>
       </c>
       <c r="E6">
-        <v>98.56992343635775</v>
+        <v>98.44194556324369</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.75565385945907</v>
+        <v>97.5406041668749</v>
       </c>
       <c r="C7">
-        <v>97.76787650394026</v>
+        <v>97.55052198775684</v>
       </c>
       <c r="D7">
-        <v>97.7191081667755</v>
+        <v>97.60325662890834</v>
       </c>
       <c r="E7">
-        <v>97.68518843526088</v>
+        <v>97.54219016892165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>96.56275851423125</v>
+        <v>96.17749759138665</v>
       </c>
       <c r="C8">
-        <v>96.51077995273498</v>
+        <v>96.15619465059127</v>
       </c>
       <c r="D8">
-        <v>96.53284561306583</v>
+        <v>96.10886151195402</v>
       </c>
       <c r="E8">
-        <v>96.44955285810674</v>
+        <v>96.12392957128026</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.5406041668749</v>
+        <v>97.95031541226649</v>
       </c>
       <c r="C7">
-        <v>97.55052198775684</v>
+        <v>98.03180981637902</v>
       </c>
       <c r="D7">
-        <v>97.60325662890834</v>
+        <v>98.07944176787048</v>
       </c>
       <c r="E7">
-        <v>97.54219016892165</v>
+        <v>98.0267340907819</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>97.5406041668749</v>
+      </c>
+      <c r="C8">
+        <v>97.55052198775684</v>
+      </c>
+      <c r="D8">
+        <v>97.60325662890834</v>
+      </c>
+      <c r="E8">
+        <v>97.54219016892165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>96.17749759138665</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>96.15619465059127</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>96.10886151195402</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>96.12392957128026</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.95031541226649</v>
+        <v>98.0026933829441</v>
       </c>
       <c r="C7">
-        <v>98.03180981637902</v>
+        <v>98.02712715519576</v>
       </c>
       <c r="D7">
-        <v>98.07944176787048</v>
+        <v>98.04793380265713</v>
       </c>
       <c r="E7">
-        <v>98.0267340907819</v>
+        <v>98.01521732164599</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.5406041668749</v>
+        <v>97.55810112812509</v>
       </c>
       <c r="C8">
-        <v>97.55052198775684</v>
+        <v>97.51237758389458</v>
       </c>
       <c r="D8">
-        <v>97.60325662890834</v>
+        <v>97.60548937726499</v>
       </c>
       <c r="E8">
-        <v>97.54219016892165</v>
+        <v>97.50472687945125</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.17749759138665</v>
+        <v>96.20948309419995</v>
       </c>
       <c r="C9">
-        <v>96.15619465059127</v>
+        <v>96.248303355997</v>
       </c>
       <c r="D9">
-        <v>96.10886151195402</v>
+        <v>96.20470324321657</v>
       </c>
       <c r="E9">
-        <v>96.12392957128026</v>
+        <v>96.21928597786848</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_LSPMW.xlsx
@@ -432,16 +432,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>74.97871205021183</v>
+        <v>39.18403521750415</v>
       </c>
       <c r="C2">
-        <v>76.08898233642797</v>
+        <v>38.48091759558707</v>
       </c>
       <c r="D2">
-        <v>81.70912027889234</v>
+        <v>41.13242413897014</v>
       </c>
       <c r="E2">
-        <v>80.33317379989258</v>
+        <v>42.0807718115307</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>86.10921159065869</v>
+        <v>50.4052041242598</v>
       </c>
       <c r="C3">
-        <v>86.48485917783529</v>
+        <v>50.29720458794134</v>
       </c>
       <c r="D3">
-        <v>86.14888549446351</v>
+        <v>50.22638394165971</v>
       </c>
       <c r="E3">
-        <v>86.4564306229955</v>
+        <v>50.27275885130553</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -466,16 +466,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>99.29849884191349</v>
+        <v>98.77004542256238</v>
       </c>
       <c r="C4">
-        <v>99.2754554553667</v>
+        <v>98.70795095373275</v>
       </c>
       <c r="D4">
-        <v>99.32840760905329</v>
+        <v>98.8258534131719</v>
       </c>
       <c r="E4">
-        <v>99.35672870082082</v>
+        <v>98.89918668649058</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,16 +483,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>98.95797991079844</v>
+        <v>98.95855301637833</v>
       </c>
       <c r="C5">
-        <v>98.95965141652303</v>
+        <v>98.95681476683551</v>
       </c>
       <c r="D5">
-        <v>98.89240116085847</v>
+        <v>98.88779824785216</v>
       </c>
       <c r="E5">
-        <v>98.91056468915318</v>
+        <v>98.90346527239799</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -500,16 +500,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>98.54715166863556</v>
+        <v>98.54094725838611</v>
       </c>
       <c r="C6">
-        <v>98.48310757927128</v>
+        <v>98.48428624236892</v>
       </c>
       <c r="D6">
-        <v>98.49366160461102</v>
+        <v>98.49223775236969</v>
       </c>
       <c r="E6">
-        <v>98.44194556324369</v>
+        <v>98.44336705398108</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>98.0026933829441</v>
+        <v>98.02445065369528</v>
       </c>
       <c r="C7">
-        <v>98.02712715519576</v>
+        <v>98.02309691807979</v>
       </c>
       <c r="D7">
-        <v>98.04793380265713</v>
+        <v>98.0631857166878</v>
       </c>
       <c r="E7">
-        <v>98.01521732164599</v>
+        <v>98.00601175557821</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>97.55810112812509</v>
+        <v>97.59316819264832</v>
       </c>
       <c r="C8">
-        <v>97.51237758389458</v>
+        <v>97.49565773388127</v>
       </c>
       <c r="D8">
-        <v>97.60548937726499</v>
+        <v>97.62472004143031</v>
       </c>
       <c r="E8">
-        <v>97.50472687945125</v>
+        <v>97.54299680541318</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>96.20948309419995</v>
+        <v>96.26427673980157</v>
       </c>
       <c r="C9">
-        <v>96.248303355997</v>
+        <v>96.28451487404142</v>
       </c>
       <c r="D9">
-        <v>96.20470324321657</v>
+        <v>96.28558978656022</v>
       </c>
       <c r="E9">
-        <v>96.21928597786848</v>
+        <v>96.28849438021088</v>
       </c>
     </row>
   </sheetData>
